--- a/Swastika Skills Audit.xlsx
+++ b/Swastika Skills Audit.xlsx
@@ -90,9 +90,6 @@
     <t>Tutorials Point Course on youtube</t>
   </si>
   <si>
-    <t xml:space="preserve">Course from leeds beckett university websire and youtube videos </t>
-  </si>
-  <si>
     <t>Free online courses on documentation</t>
   </si>
   <si>
@@ -123,21 +120,12 @@
     <t>Gain more information on how to track the progress of the project.</t>
   </si>
   <si>
-    <t>Get more knowledge on eerd, erd and uml diagrams.</t>
-  </si>
-  <si>
-    <t>Gain more knowlede to use on project.</t>
-  </si>
-  <si>
     <t>Develop knowledge and implement on project to make website logo.</t>
   </si>
   <si>
     <t>Apex Oracle</t>
   </si>
   <si>
-    <t>Get information about making the website reponsive.</t>
-  </si>
-  <si>
     <t>Develop knowledge on how to use oracle database for our project.</t>
   </si>
   <si>
@@ -168,9 +156,6 @@
     <t>Implement online payment i.e. paypal in our project.</t>
   </si>
   <si>
-    <t>Gain more knowledge and practice to make a better logo.</t>
-  </si>
-  <si>
     <t>Slack</t>
   </si>
   <si>
@@ -196,6 +181,21 @@
   </si>
   <si>
     <t>Communicate with team members in a proper way.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course from Leeds Beckett University website and youtube videos </t>
+  </si>
+  <si>
+    <t>Get more knowledge to create eerd, erd and uml diagrams.</t>
+  </si>
+  <si>
+    <t>Obtain more knowledge to make documentation better.</t>
+  </si>
+  <si>
+    <t>Gain more practice and ideas to make a better logo.</t>
+  </si>
+  <si>
+    <t>Obtain proper information to make the website reponsive.</t>
   </si>
 </sst>
 </file>
@@ -839,14 +839,14 @@
     <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="21"/>
@@ -899,10 +899,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="6">
         <v>3</v>
@@ -925,10 +925,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="6">
         <v>30</v>
@@ -951,10 +951,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6">
         <v>4</v>
@@ -977,10 +977,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F10" s="6">
         <v>20</v>
@@ -1003,10 +1003,10 @@
         <v>3</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="6">
         <v>8</v>
@@ -1032,7 +1032,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="6">
         <v>9</v>
@@ -1055,10 +1055,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F13" s="6">
         <v>5</v>
@@ -1081,10 +1081,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F14" s="6">
         <v>5</v>
@@ -1107,10 +1107,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F15" s="6">
         <v>2</v>
@@ -1133,10 +1133,10 @@
         <v>3</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F16" s="6">
         <v>7</v>
@@ -1159,10 +1159,10 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F17" s="1">
         <v>3</v>
@@ -1179,16 +1179,16 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F18" s="1">
         <v>12</v>
@@ -1205,16 +1205,16 @@
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F19" s="1">
         <v>2</v>
@@ -1231,16 +1231,16 @@
         <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F20" s="1">
         <v>4</v>
@@ -1257,16 +1257,16 @@
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>

--- a/Swastika Skills Audit.xlsx
+++ b/Swastika Skills Audit.xlsx
@@ -108,9 +108,6 @@
     <t>Date Reviewed: 2020-02-27</t>
   </si>
   <si>
-    <t>Better undertand front end to implement it on project.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Gain knowledge to work on login system, add to cart and so on.</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>Obtain proper information to make the website reponsive.</t>
+  </si>
+  <si>
+    <t>Better understand front end to implement it on project.</t>
   </si>
 </sst>
 </file>
@@ -786,8 +786,8 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -899,10 +899,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F7" s="6">
         <v>3</v>
@@ -925,10 +925,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="6">
         <v>30</v>
@@ -951,10 +951,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="6">
         <v>4</v>
@@ -977,10 +977,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="6">
         <v>20</v>
@@ -1003,10 +1003,10 @@
         <v>3</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="6">
         <v>8</v>
@@ -1032,7 +1032,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="6">
         <v>9</v>
@@ -1055,10 +1055,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="F13" s="6">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         <v>23</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="6">
         <v>5</v>
@@ -1107,10 +1107,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="6">
         <v>2</v>
@@ -1136,7 +1136,7 @@
         <v>26</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" s="6">
         <v>7</v>
@@ -1162,7 +1162,7 @@
         <v>27</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="1">
         <v>3</v>
@@ -1179,16 +1179,16 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" s="1">
         <v>12</v>
@@ -1205,16 +1205,16 @@
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="1">
         <v>2</v>
@@ -1231,16 +1231,16 @@
         <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" s="1">
         <v>4</v>
@@ -1257,16 +1257,16 @@
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>

--- a/Swastika Skills Audit.xlsx
+++ b/Swastika Skills Audit.xlsx
@@ -141,9 +141,6 @@
     <t>Php course by freeCodeCamp.org on youtube</t>
   </si>
   <si>
-    <t>W3Schhols tutorials of Html and Css</t>
-  </si>
-  <si>
     <t>Practicing more with the help of notes of previous semester and youtube videos of Photoshop</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>Better understand front end to implement it on project.</t>
+  </si>
+  <si>
+    <t>W3Schools tutorials of Html and Css</t>
   </si>
 </sst>
 </file>
@@ -787,7 +787,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -899,10 +899,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="6">
         <v>3</v>
@@ -980,7 +980,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="6">
         <v>20</v>
@@ -1055,10 +1055,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="F13" s="6">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         <v>23</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="6">
         <v>5</v>
@@ -1107,10 +1107,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" s="6">
         <v>2</v>
@@ -1162,7 +1162,7 @@
         <v>27</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" s="1">
         <v>3</v>
@@ -1185,7 +1185,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>34</v>
@@ -1205,16 +1205,16 @@
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" s="1">
         <v>2</v>
@@ -1231,16 +1231,16 @@
         <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="1">
         <v>4</v>
@@ -1257,16 +1257,16 @@
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>
